--- a/Black Cards.xlsx
+++ b/Black Cards.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomva\Anaconda 3 Projects\PyCaH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomva\Documents\GitHub\PyCaH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="973">
   <si>
     <t>After eight years in the White House, how is Obama finally letting loose?</t>
   </si>
@@ -345,9 +345,6 @@
   </si>
   <si>
     <t>Dear Abby, I'm having some trouble with ___ and would like your advice.</t>
-  </si>
-  <si>
-    <t>Dear Agony Aunt, I'm having some trouble with _____ and I need your advice.</t>
   </si>
   <si>
     <t>Dude, do not go in that bathroom. There's ___ in there.</t>
@@ -551,19 +548,10 @@
     <t>Next on Nine's Wide World of Sports: The World Championship of ___.</t>
   </si>
   <si>
-    <t>Next on Sky Sports: The World Championship of _____.</t>
-  </si>
-  <si>
-    <t>Next on Sky Sports: The World Champsion of _____.</t>
-  </si>
-  <si>
     <t>Next on TSN: The World Series of ___.</t>
   </si>
   <si>
     <t>Next up on Channel 4: Ramsay's ___ Nightmares.</t>
-  </si>
-  <si>
-    <t>Nobody expects the Spanish Inquisition. Our chief weapons are fear, surprise, and _____.</t>
   </si>
   <si>
     <t>Now at the National Museum of Australia: an interactive exhibit on ___.</t>
@@ -619,9 +607,6 @@
     <t>The class field trip was completely ruined by ___.</t>
   </si>
   <si>
-    <t>The Natural History Museum has just opened an interactive exhibit on _____.</t>
-  </si>
-  <si>
     <t>The new Chevy Tahoe. With the power and space to take ___ everywhere you go.</t>
   </si>
   <si>
@@ -635,12 +620,6 @@
   </si>
   <si>
     <t>The Smithsonian Museum of Natural History has just opened an interactive exhibit on ___.</t>
-  </si>
-  <si>
-    <t>The TFL apologizes for the delay in train service due to _____. </t>
-  </si>
-  <si>
-    <t>The theme for next year's Eurovision Song Contest is "We are _____."</t>
   </si>
   <si>
     <t>The U.S. has begun airdropping ___ to the children of Afghanistan.</t>
@@ -672,9 +651,6 @@
     <t>Today on Maury: "Help! My son is ___!"</t>
   </si>
   <si>
-    <t>Today on The Jeremy Kyle Show: "Help! My son is _____!"</t>
-  </si>
-  <si>
     <t>TSA guidelines now prohibit ___ on airplanes.</t>
   </si>
   <si>
@@ -727,13 +703,2313 @@
   </si>
   <si>
     <t>White people like ___.</t>
+  </si>
+  <si>
+    <t>What brought the orgy to a grinding halt?</t>
+  </si>
+  <si>
+    <t>What has been making life difficult at the nudist colony?</t>
+  </si>
+  <si>
+    <t>What's the gift that keeps on giving?</t>
+  </si>
+  <si>
+    <t>When I pooped, what came out of my butt?</t>
+  </si>
+  <si>
+    <t>If you had to describe the Card Czar, using only one of the cards in your hand, which one would it be?</t>
+  </si>
+  <si>
+    <t>How are the writers of Cards Against Humanity spending your $25?</t>
+  </si>
+  <si>
+    <t>Who blasphemes and bubbles at the center of all infinity, whose name no lips dare speak aloud, and who gnaws hungrily in inconceivable, unlighted chambers beyond time?</t>
+  </si>
+  <si>
+    <t>Your father was a powerful wizard, Harry. Before he died, he left you something very precious: ___.</t>
+  </si>
+  <si>
+    <t>What gets me wet?</t>
+  </si>
+  <si>
+    <t>What keeps me warm during the cold, cold winter?</t>
+  </si>
+  <si>
+    <t>Daddy, why is Mommy crying?</t>
+  </si>
+  <si>
+    <t>What made Spock cry?</t>
+  </si>
+  <si>
+    <t>What's the latest bullshit that's troubling this quaint fantasy town?</t>
+  </si>
+  <si>
+    <t>Sir, we found you passed out naked on the side of the road. What's the last thing you remember?</t>
+  </si>
+  <si>
+    <t>What are two cards in your hand that you want to get rid of?</t>
+  </si>
+  <si>
+    <t>What do you see? [An image of a Rorschach inkblot]</t>
+  </si>
+  <si>
+    <t>Daddy, what made you divorce Mommy?</t>
+  </si>
+  <si>
+    <t>War World II was the result of what?</t>
+  </si>
+  <si>
+    <t>What are my relatives hiding from me?</t>
+  </si>
+  <si>
+    <t>What did I bring back from Cancun?</t>
+  </si>
+  <si>
+    <t>What do they call American Cheese in Canada?</t>
+  </si>
+  <si>
+    <t>What gave me unforgiving, ever lasting, flaming diarrhea?</t>
+  </si>
+  <si>
+    <t>What is George W. Bush's favorite past time?</t>
+  </si>
+  <si>
+    <t>What is my biggest turn off?</t>
+  </si>
+  <si>
+    <t>What is Serena Williams's guilty pleasure?</t>
+  </si>
+  <si>
+    <t>What is that noise from?</t>
+  </si>
+  <si>
+    <t>What is the perfect aphrodisiac for triggering a threesome?</t>
+  </si>
+  <si>
+    <t>What lead to me getting fired form my last job?</t>
+  </si>
+  <si>
+    <t>What left this mark on my carpet?</t>
+  </si>
+  <si>
+    <t>What was Paul Walker's last meal?</t>
+  </si>
+  <si>
+    <t>When committing a deadly sin I always think about?</t>
+  </si>
+  <si>
+    <t>When masturbating, I dream about?</t>
+  </si>
+  <si>
+    <t>Why can't we have nice things?</t>
+  </si>
+  <si>
+    <t>Fuck, marry, kill.</t>
+  </si>
+  <si>
+    <t>If there's something strange in your neighborhood, who you gonna call?</t>
+  </si>
+  <si>
+    <t>It's dangerous to go alone! Take this.</t>
+  </si>
+  <si>
+    <t>What convinced me to stop believing in a higher power?</t>
+  </si>
+  <si>
+    <t>What gave me the 24-hour runs?</t>
+  </si>
+  <si>
+    <t>According to the latest issue of Cosmo, what is the one thing guys crave most in bed?</t>
+  </si>
+  <si>
+    <t>What do porn directors masturbate to?</t>
+  </si>
+  <si>
+    <t>What makes me moist?</t>
+  </si>
+  <si>
+    <t>What's the one thing the opposite sex is good for?</t>
+  </si>
+  <si>
+    <t>What did South Carolina replace the Confederate Flag with on its buildings?</t>
+  </si>
+  <si>
+    <t>Siri, what is the meaning of life?</t>
+  </si>
+  <si>
+    <t>What caused those smelly stains in my underwear?</t>
+  </si>
+  <si>
+    <t>What's holding you back from achieving your dreams?</t>
+  </si>
+  <si>
+    <t>What's the absolute last thing you want to catch your Dad doing?</t>
+  </si>
+  <si>
+    <t>How do commissioned officers view NCOs?</t>
+  </si>
+  <si>
+    <t>What best describes the feeling of getting your DD214?</t>
+  </si>
+  <si>
+    <t>What did I try to sneak into Fort Leavenworth?</t>
+  </si>
+  <si>
+    <t>What do warrant officers actually do?</t>
+  </si>
+  <si>
+    <t>What does it mean to be an NCO?</t>
+  </si>
+  <si>
+    <t>What funny lies did you tell Afghans when you were deployed?</t>
+  </si>
+  <si>
+    <t>What is the greatest thing you have heard a drill instructor say?</t>
+  </si>
+  <si>
+    <t>What was found in Iraq after the latest UN visit?</t>
+  </si>
+  <si>
+    <t>What was the best advice you got in basic training?</t>
+  </si>
+  <si>
+    <t>What was the dumbest thing you bought with your signing bonus?</t>
+  </si>
+  <si>
+    <t>What would our forefathers think of today's military?</t>
+  </si>
+  <si>
+    <t>What's going on with your female servicemembers?</t>
+  </si>
+  <si>
+    <t>Why did my spouse divorce me?</t>
+  </si>
+  <si>
+    <t>Why did the Military Police pull me over?</t>
+  </si>
+  <si>
+    <t>Why is my sex life non-existent.</t>
+  </si>
+  <si>
+    <t>Why is the CO's wife such a cunt?</t>
+  </si>
+  <si>
+    <t>Why was a SHARP complaint filed on me?</t>
+  </si>
+  <si>
+    <t>Why was your commander court-martialed?</t>
+  </si>
+  <si>
+    <t>WWCND: What would Chuck Norris do?</t>
+  </si>
+  <si>
+    <t>How did I lose my car keys this time?</t>
+  </si>
+  <si>
+    <t>Why am I taking Ambien?</t>
+  </si>
+  <si>
+    <t>Why does Batman really hate Superman?</t>
+  </si>
+  <si>
+    <t>Hitler did nothing wrong; abortions should be legal for gay babies; Bush wasn't a bad president; and now I'll read the card: what did I masturbate to before I got here?</t>
+  </si>
+  <si>
+    <t>What is the short version of why I'm not allowed to go back to Australia?</t>
+  </si>
+  <si>
+    <t>Hey little girl. What's that in your hand?</t>
+  </si>
+  <si>
+    <t>How does one win the heart of a beautiful woman?</t>
+  </si>
+  <si>
+    <t>What do Kim Jong-Un, Putin and Trump all have in common?</t>
+  </si>
+  <si>
+    <t>What happened to my bed sheets?</t>
+  </si>
+  <si>
+    <t>What is missing from my sex life?</t>
+  </si>
+  <si>
+    <t>Who or what is my spirit animal?</t>
+  </si>
+  <si>
+    <t>Why haven't I gotten laid recently?</t>
+  </si>
+  <si>
+    <t>How did I get this restraining order?</t>
+  </si>
+  <si>
+    <t>How did I hurt my back?</t>
+  </si>
+  <si>
+    <t>How did my grandparents make it through the Great Depression?</t>
+  </si>
+  <si>
+    <t>The last three items on my "bucket list":</t>
+  </si>
+  <si>
+    <t>What was one of the rejected flavors for Bertie Bott's Every Flavour Beans™?</t>
+  </si>
+  <si>
+    <t>Why won't they let me in Chuck E. Cheese's® anymore?</t>
+  </si>
+  <si>
+    <t>Turn down for what?</t>
+  </si>
+  <si>
+    <t>What really brings out the child in me?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What would </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>you</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do for a Klondike® Bar?</t>
+    </r>
+  </si>
+  <si>
+    <t>Why do I need feminism?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Why is Jon Stewart </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>really</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> retiring?</t>
+    </r>
+  </si>
+  <si>
+    <t>Why so salty?</t>
+  </si>
+  <si>
+    <t>Could a brother get ___ up in this bitch?</t>
+  </si>
+  <si>
+    <t>What would you do for a Klondike Bar?</t>
+  </si>
+  <si>
+    <t>Why is Jon Stewart really retiring?</t>
+  </si>
+  <si>
+    <t>What killed Mister Rogers?</t>
+  </si>
+  <si>
+    <t>How was the universe really created?</t>
+  </si>
+  <si>
+    <t>What was the last thing I Googled?</t>
+  </si>
+  <si>
+    <t>Why do I always feel tired?</t>
+  </si>
+  <si>
+    <t>What makes little girls cry?</t>
+  </si>
+  <si>
+    <t>What's oozing down my leg?</t>
+  </si>
+  <si>
+    <t>Why do I bareback?</t>
+  </si>
+  <si>
+    <t>Why was the low-level diplomat kicked out of the country?</t>
+  </si>
+  <si>
+    <t>What is the 18th Sustainable Development Goal?</t>
+  </si>
+  <si>
+    <t>What is USAID's guilty pleasure?</t>
+  </si>
+  <si>
+    <t>What is DFID's secret weapon against USAID dominance?</t>
+  </si>
+  <si>
+    <t>What's the secret to peace in the Middle East?</t>
+  </si>
+  <si>
+    <t>Brown bear, brown bear, what do you see?</t>
+  </si>
+  <si>
+    <t>Daddy's worst nightmare.</t>
+  </si>
+  <si>
+    <t>How we got your little brother.</t>
+  </si>
+  <si>
+    <t>Junior's favorite cock block.</t>
+  </si>
+  <si>
+    <t>Signs that you are THAT family.</t>
+  </si>
+  <si>
+    <t>What is that smell?</t>
+  </si>
+  <si>
+    <t>What the f**k is that?</t>
+  </si>
+  <si>
+    <t>Why does daddy drink?</t>
+  </si>
+  <si>
+    <t>Why is daddy in time out again?</t>
+  </si>
+  <si>
+    <t>Why is mommy locked in the bathroom?</t>
+  </si>
+  <si>
+    <t>What did I smuggle into Mexico?</t>
+  </si>
+  <si>
+    <t>WHAT ARE THOSE?!?!?!</t>
+  </si>
+  <si>
+    <t>What did I used to sell to people door-to-door?</t>
+  </si>
+  <si>
+    <t>What do you feel when bae friend-zones you?</t>
+  </si>
+  <si>
+    <t>What does Hulk Hogan scream whilst ejaculating?</t>
+  </si>
+  <si>
+    <t>What is my most treasured memory?</t>
+  </si>
+  <si>
+    <t>What makes me moist.</t>
+  </si>
+  <si>
+    <t>What touched me in a new way?</t>
+  </si>
+  <si>
+    <t>What was Mother Teresa's favorite memory whilst on her pilgrimage to Ireland?</t>
+  </si>
+  <si>
+    <t>What was the theme of Rob Ross's most cherished painting?</t>
+  </si>
+  <si>
+    <t>What's the most annoying thing I need to do once or twice a week?</t>
+  </si>
+  <si>
+    <t>How do we get people to stop moving to Colorado?</t>
+  </si>
+  <si>
+    <t>How do you know if you have altitude sickness?</t>
+  </si>
+  <si>
+    <t>What did you see the last time you were on Colfax?</t>
+  </si>
+  <si>
+    <t>What else can you buy used at Rocky's Autos?</t>
+  </si>
+  <si>
+    <t>What ruined my last tailgate at Sport Authority Field?</t>
+  </si>
+  <si>
+    <t>What should be a new sport in the X-Games this year?</t>
+  </si>
+  <si>
+    <t>What should be added to the Colorado flag?</t>
+  </si>
+  <si>
+    <t>What should be banned from Colorado?</t>
+  </si>
+  <si>
+    <t>What should you never add to your home microbrew?</t>
+  </si>
+  <si>
+    <t>What's really below DIA?</t>
+  </si>
+  <si>
+    <t>What's the latest trend in Boulder?</t>
+  </si>
+  <si>
+    <t>What's the one thing we can all look forward to on opening day at Coors Field®?</t>
+  </si>
+  <si>
+    <t>What's the skeleton in Governor John Hickenlooper's closet?</t>
+  </si>
+  <si>
+    <t>An international tribunal has found ___ guilty of ___.</t>
+  </si>
+  <si>
+    <t>And I would have gotten away with it, too, if it hadn't been for ___!</t>
+  </si>
+  <si>
+    <t>Awww, sick! I just saw this skater do a 720 kickflip into ___!</t>
+  </si>
+  <si>
+    <t>Dear Sir or Madam, We regret to inform you that the Office of ___ has denied your request for ___.</t>
+  </si>
+  <si>
+    <t>Doctor, you've gone too far! The human body wasn't meant to withstand that amount of ___!</t>
+  </si>
+  <si>
+    <t>Future historians will agree that ___ marked the beginning of America's decline.</t>
+  </si>
+  <si>
+    <t>He who controls ___ controls the world.</t>
+  </si>
+  <si>
+    <t>I learned the hard way that you can't cheer up a grieving friend with ___.</t>
+  </si>
+  <si>
+    <t>In a pinch, ___ can be a suitable substitute for ___.</t>
+  </si>
+  <si>
+    <t>In his new self-produced album, Kanye West raps over the sounds of ___.</t>
+  </si>
+  <si>
+    <t>In its new tourism campaign, Detroit proudly proclaims that it has finally eliminated ___.</t>
+  </si>
+  <si>
+    <t>In Rome, there are whisperings that the Vatican has a secret room devoted to ___.</t>
+  </si>
+  <si>
+    <t>In the distant future, historians will agree that ___ marked the beginning of America's decline.</t>
+  </si>
+  <si>
+    <t>Michael Bay's new three-hour action epic pits ___ against ___.</t>
+  </si>
+  <si>
+    <t>My plan for world domination begins with ___.</t>
+  </si>
+  <si>
+    <t>Next season on Man vs, Wild, Bear Grylls must survive the depths of the Amazon with only ___ and his wits.</t>
+  </si>
+  <si>
+    <t>Science will never explain ___.</t>
+  </si>
+  <si>
+    <t>Science will never explain the origin of ___.</t>
+  </si>
+  <si>
+    <t>The CIA now interrogates enemy agents by repeatedly subjecting them to ___.</t>
+  </si>
+  <si>
+    <t>The secret to a lasting marriage is communication, communication, and ___.</t>
+  </si>
+  <si>
+    <t>The socialist governments of Scandinavia have declared that access to ___ is a basic human right.</t>
+  </si>
+  <si>
+    <t>This season on Man vs. Wild, Bear Grylls must survive in the depths of the Amazon with only ___ and his wits.</t>
+  </si>
+  <si>
+    <t>When all else fails, I can always masturbate to ___.</t>
+  </si>
+  <si>
+    <t>"This is madness." "No, THIS IS ___!"</t>
+  </si>
+  <si>
+    <t>And would you like those buffalo wings mild, hot, or ___?</t>
+  </si>
+  <si>
+    <t>Behind every powerful man is ___.</t>
+  </si>
+  <si>
+    <t>Come to Dubai, where you can relax in our world famous spas, experience the nightlife, or simply enjoy ___ by the poolside.</t>
+  </si>
+  <si>
+    <t>Don't worry kid. It gets better. I've been living with ___ for 20 years.</t>
+  </si>
+  <si>
+    <t>Everybody join hands and close your eyes. Do you sense that? That's the presence of ___ in this room.</t>
+  </si>
+  <si>
+    <t>I have a strict policy. First date, dinner. Second date, kiss. Third date, ___.</t>
+  </si>
+  <si>
+    <t>I went to the desert and ate of the peyote cactus. Turns out my spirit animal is ___.</t>
+  </si>
+  <si>
+    <t>I work my ass off all day for this family, and this is what I come home to? ___!?</t>
+  </si>
+  <si>
+    <t>I'm Miss Tennessee, and if I could make the world better by changing one thing, I would get rid of ___.</t>
+  </si>
+  <si>
+    <t>I'm sorry, Mrs. Chen, but there was nothing we could do. At 4:15 this morning, your son succumbed to ___.</t>
+  </si>
+  <si>
+    <t>James is a lonely boy. But when he discovers a secret door in his attic, he meets a magical new friend: ___.</t>
+  </si>
+  <si>
+    <t>Listen Gary, I like you. But if you want that corner office, you're going to have to show me ___.</t>
+  </si>
+  <si>
+    <t>My grandfather worked his way up from nothing. When he came to this country, all he had was the shoes on his feet and ___.</t>
+  </si>
+  <si>
+    <t>Puberty is a time of change. You might notice hair growing in new places. You might develop an intrest in ___. This is normal.</t>
+  </si>
+  <si>
+    <t>The six things I could never do without: oxygen, facebook, chocolate, netflix, friends, and ___ LOL!</t>
+  </si>
+  <si>
+    <t>This is America. If you don't work hard, you don't succeed. I don't care if you're black, white, purple, or ___.</t>
+  </si>
+  <si>
+    <t>To become a true Yanomamo warrior, you must prove that you can withstand ___ without crying out.</t>
+  </si>
+  <si>
+    <t>Tonight we will have sex. And afterwards, If you'd like, a little bit of ___.</t>
+  </si>
+  <si>
+    <t>When I was a kid, we used to play Cowboys and ___.</t>
+  </si>
+  <si>
+    <t>Why won't you make love to me anymore? Is it ___?</t>
+  </si>
+  <si>
+    <t>Y'all ready to get this thing started? I'm Nick Cannon, and this is America's Got ___.</t>
+  </si>
+  <si>
+    <t>You are not alone. Millions of Americans struggle with ___ every day.</t>
+  </si>
+  <si>
+    <t>You know, once you get past ___, ___ ain't so bad.</t>
+  </si>
+  <si>
+    <t>You Won't Believe These 15 Hilarious ___ Bloopers!</t>
+  </si>
+  <si>
+    <t>Looking to earn big bucks? Learn how to make ___ work for you!</t>
+  </si>
+  <si>
+    <t>And in the end, the dragon was not evil; he just wanted ___.</t>
+  </si>
+  <si>
+    <t>Critics are raving about HBO's new Game of Thrones spin-off, "___ of ___."</t>
+  </si>
+  <si>
+    <t>Having tired of poetry and music, the immortal elves now fill their days with ___.</t>
+  </si>
+  <si>
+    <t>Legend tells of a princess who has been asleep for a thousand years and can only be awoken by ___.</t>
+  </si>
+  <si>
+    <t>Can a woman really have it all? A career and ___?</t>
+  </si>
+  <si>
+    <t>My body, my voice! ___, my choice!</t>
+  </si>
+  <si>
+    <t>My vagina's angry. My vagina's furious and needs to talk. It needs to talk about ___.</t>
+  </si>
+  <si>
+    <t>New fom Mattel, it's ___ Barbie!</t>
+  </si>
+  <si>
+    <t>Tampax: Don’t let your period ruin ___.</t>
+  </si>
+  <si>
+    <t>After blacking out during New Year's Eve, I was awoken by ___.</t>
+  </si>
+  <si>
+    <t>Every Christmas, my uncle gets drunk and tells the story about ___.</t>
+  </si>
+  <si>
+    <t>Jesus is ___.</t>
+  </si>
+  <si>
+    <t>On the third day of Christmas, my true love gave to me: three French hens, two turtle doves, and ___.</t>
+  </si>
+  <si>
+    <t>This holiday season, Tim Allen must overcome his fear of ___ to save Christmas.</t>
+  </si>
+  <si>
+    <t>Wake up, America. Christmas is under attack by secular liberals and their ___.</t>
+  </si>
+  <si>
+    <t>___: Achievement unlocked.</t>
+  </si>
+  <si>
+    <t>In the new DLC for Mass Effect, Shepard must save the galaxy from ___.</t>
+  </si>
+  <si>
+    <t>No Enforcer wants to manage the panel on ___.</t>
+  </si>
+  <si>
+    <t>The most controversial game at PAX this year is an 8-bit indie platformer about ___.</t>
+  </si>
+  <si>
+    <t>There was a riot at the Gearbox panel when they gave the attendees ___.</t>
+  </si>
+  <si>
+    <t>I’m Bobby Flay, and if you can’t stand ___, get out of the kitchen!</t>
+  </si>
+  <si>
+    <t>It’s not delivery.
+It’s ___.</t>
+  </si>
+  <si>
+    <t>From WBEZ Chicago, it's This American Life. Today on our program, ___. Stay with us.</t>
+  </si>
+  <si>
+    <t>My name is Inigo Montoya. You killed my father. Prepare for ___.</t>
+  </si>
+  <si>
+    <t>The elders of the Ibo tribe of Nigeria recommend ___ as a cure for impotence.</t>
+  </si>
+  <si>
+    <t>The Westboro Baptist Church is now picketing soldiers' funerals with signs that read 'GOD HATES ___!'</t>
+  </si>
+  <si>
+    <t>You can't wait forever. It's time to talk to your doctor about ___.</t>
+  </si>
+  <si>
+    <t>Before swallowing his pride and a cyanide pill, Adolf whispered to Eva, "Sorry about ___".</t>
+  </si>
+  <si>
+    <t>Leni Riefenstahl's last movie was called Triumph of ___.</t>
+  </si>
+  <si>
+    <t>As repartations for slavery, all African Americans will receive ___.</t>
+  </si>
+  <si>
+    <t>Senator, I trust you enjoyed ___ last night.  Now, can I count on your vote?</t>
+  </si>
+  <si>
+    <t>When you go to the polls on Tuesday, remember:  a vote for me is a vote for ___.</t>
+  </si>
+  <si>
+    <t>After attending Food Truck Tuesdy at Larkinville I frequently enjoy ___.</t>
+  </si>
+  <si>
+    <t>After the Ice Boom was removed, ___ was floating down the Niagara River.</t>
+  </si>
+  <si>
+    <t>An abandoned grain elevator filled with ___ would be a good time.</t>
+  </si>
+  <si>
+    <t>An unexpected slowdown in traffic on the 33, obviously caused by ___.</t>
+  </si>
+  <si>
+    <t>Headlining at Canalside this summer, my favorite band: ___.</t>
+  </si>
+  <si>
+    <t>I am confident that ___ would finally make the Sabres good.</t>
+  </si>
+  <si>
+    <t>I would personally deliver a flaming bag of ___ to Bon Jovi's doorstep.</t>
+  </si>
+  <si>
+    <t>I would rather ___ than see Tom Brady win anything. When he does win, I think about ___.</t>
+  </si>
+  <si>
+    <t>If I opened my own brewery in Buffalo, I would call it ___.</t>
+  </si>
+  <si>
+    <t>Most of the new activities downtown seem cool, but I absolutely refuse to try ___!</t>
+  </si>
+  <si>
+    <t>Rex Ryan's tricked out Buffalo Bills pickup truck is probably filled with ___ and ___.</t>
+  </si>
+  <si>
+    <t>So that's why I called my night with Janet Snyder: ___.</t>
+  </si>
+  <si>
+    <t>Terry Pegula usually imagines ___ to remain calm during his awkward press conferences.</t>
+  </si>
+  <si>
+    <t>There is no way I'm going near the Perry Projects. I might run into ___.</t>
+  </si>
+  <si>
+    <t>When you put a Ted's Hotdog in a Lloyd Taco you get: ___.</t>
+  </si>
+  <si>
+    <t>___ is my motivation.</t>
+  </si>
+  <si>
+    <t>___ is the active ingredient in cigarettes.</t>
+  </si>
+  <si>
+    <t>___ was the cause of the Holocaust.</t>
+  </si>
+  <si>
+    <t>A McDonald's employee was recently fired for placing ___ in children's Happy Meals.</t>
+  </si>
+  <si>
+    <t>I use drugs to escape ___.</t>
+  </si>
+  <si>
+    <t>My anaconda don't want none unless you got ___ Hun.</t>
+  </si>
+  <si>
+    <t>My favorite hobby is ___.</t>
+  </si>
+  <si>
+    <t>My parents found ___ when browsing my web history.</t>
+  </si>
+  <si>
+    <t>The Pulitzer prize for ___ goes to ___.</t>
+  </si>
+  <si>
+    <t>The reason the ozone layer is decaying is because of ___.</t>
+  </si>
+  <si>
+    <t>They say ___ is the best medicine.</t>
+  </si>
+  <si>
+    <t>We should stop war on ___, it has ruined more lives than saved.</t>
+  </si>
+  <si>
+    <t>When I am a newly appointed dictator of a war torn nation, I will legalize ___.</t>
+  </si>
+  <si>
+    <t>When listening to a Creed album, I feel like ___.</t>
+  </si>
+  <si>
+    <t>___ a day keeps the doctor away.</t>
+  </si>
+  <si>
+    <t>___ brings all the boys to the yard.</t>
+  </si>
+  <si>
+    <t>___ is the new ___.</t>
+  </si>
+  <si>
+    <t>___ is why we can't have nice things.</t>
+  </si>
+  <si>
+    <t>___ shaped my childhood, making me the person I am today.</t>
+  </si>
+  <si>
+    <t>Before hot dogs, Kobayashi was the champion of devouring ___.</t>
+  </si>
+  <si>
+    <t>Earth! Fire! Wind! Water! ___! By your powers combined, I am Captain ___!</t>
+  </si>
+  <si>
+    <t>Everything is awesome! Everything is cool when you're part of ___!</t>
+  </si>
+  <si>
+    <t>Fifth base will henceforth be considered ___.</t>
+  </si>
+  <si>
+    <t>Fuck this. I'm going to create my own United States of ___.</t>
+  </si>
+  <si>
+    <t>Gone are the days of the rock star. Now it's all about sex, drugs, and ___.</t>
+  </si>
+  <si>
+    <t>I came up with a new dance move. I call it "___".</t>
+  </si>
+  <si>
+    <t>I learned about ___ in high school and ___ in college.</t>
+  </si>
+  <si>
+    <t>I liked ___ before it was cool.</t>
+  </si>
+  <si>
+    <t>I would rather have my "O" face resemble ___ than ___.</t>
+  </si>
+  <si>
+    <t>I'm straight, but ___ could turn me gay.</t>
+  </si>
+  <si>
+    <t>In space, no one can hear ___.</t>
+  </si>
+  <si>
+    <t>It rubs ___ on its skin or else it gets ___ again.</t>
+  </si>
+  <si>
+    <t>It's dangerous to go alone!  Take ___.</t>
+  </si>
+  <si>
+    <t>Last night I dreamt of an alternate universe where everyone shit ___ and puked ___.</t>
+  </si>
+  <si>
+    <t>Last night was totally epic and can only be explained throught he eloquence of hashtags! #___ #___ #___.</t>
+  </si>
+  <si>
+    <t>Leonardo DiCaprio will finally win an Oscar for his role in ___.</t>
+  </si>
+  <si>
+    <t>My perfect day would have to include ___ followed by ___.</t>
+  </si>
+  <si>
+    <t>On the next episode of My Strange Addiction, Josh just can't get enough of ___.</t>
+  </si>
+  <si>
+    <t>On the next episode of “My Strange Addiction”, Josh just can't get enough of ___.</t>
+  </si>
+  <si>
+    <t>One nation, under ___, with ___ and ___ for all.</t>
+  </si>
+  <si>
+    <t>One nation, under ___, indivisible, with ___ and ___ for all.</t>
+  </si>
+  <si>
+    <t>The area was evacuated and deemed uninhabitable due to ___.</t>
+  </si>
+  <si>
+    <t>The snozberries taste like ___.</t>
+  </si>
+  <si>
+    <t>The snozzberries taste like ___.</t>
+  </si>
+  <si>
+    <t>When life hands you ___, make ___.</t>
+  </si>
+  <si>
+    <t>You had me at "___".</t>
+  </si>
+  <si>
+    <t>You might be a redneck if you use ___ for ___.</t>
+  </si>
+  <si>
+    <t>Crossfitters won't stop talking about a new exercise in their routine that involves ___.</t>
+  </si>
+  <si>
+    <t>Do you suffer from ___? Find instant relief with ___.</t>
+  </si>
+  <si>
+    <t>Face it, ladies. I'm older and I have ___.</t>
+  </si>
+  <si>
+    <t>I gave her my heart and she gave me ___.</t>
+  </si>
+  <si>
+    <t>I gave up ___ for Lent.</t>
+  </si>
+  <si>
+    <t>I started feeling old after I got into ___.</t>
+  </si>
+  <si>
+    <t>I'm not sure what to get my mom for Mother's Day, but I'm getting your mom ___.</t>
+  </si>
+  <si>
+    <t>In his next movie, Rob Schneider is ___.</t>
+  </si>
+  <si>
+    <t>In the next episode, Ms. Frizzle and her class explore ___ in the Magic School Bus.</t>
+  </si>
+  <si>
+    <t>Next on Dr. Phil: How to talk to your child about ___.</t>
+  </si>
+  <si>
+    <t>Swipe right if you're looking for ___.</t>
+  </si>
+  <si>
+    <t>The 102nd position of the Kama Sutra involves ___.</t>
+  </si>
+  <si>
+    <t>When Taylor Swift and I broke up, she wrote a song about our relationship called ___.</t>
+  </si>
+  <si>
+    <t>When you've got ___, flaunt it.</t>
+  </si>
+  <si>
+    <t>In the latest multi-level marketing scheme sweeping the nation, women are throwing parties to sell ___.</t>
+  </si>
+  <si>
+    <t>___. Is my way of giving back to the community.</t>
+  </si>
+  <si>
+    <t>___ is my way of giving back to the community.</t>
+  </si>
+  <si>
+    <t>A Hollywood remake of 2 girls 1 cup should star ___ as the cup.</t>
+  </si>
+  <si>
+    <t>A Hollywood remake of 2 Girls 1 Cup should star ___ as the cup.</t>
+  </si>
+  <si>
+    <t>And for my final wish Genie, I want you to make me the master of ___.</t>
+  </si>
+  <si>
+    <t>And for my final wish, Genie, I want you to make me the master of ___.</t>
+  </si>
+  <si>
+    <t>As a huge fan of 50 Shades of Gray I'm a bit disappointed with the film's casting, I've always pictured ___ as Gray.</t>
+  </si>
+  <si>
+    <t>As a huge fan of 50 Shades of Grey, I'm a bit disappointed with the film's casting. I've always pictured ___ as Grey.</t>
+  </si>
+  <si>
+    <t>Baby got ___.</t>
+  </si>
+  <si>
+    <t>Colleges should really start offering classes in ___.</t>
+  </si>
+  <si>
+    <t>Dear Allah, if I promise to stop ___ will you let me into heaven and give me 72 virgins?</t>
+  </si>
+  <si>
+    <t>Dear Allah, if I promise to stop ___, will you let me into Heaven and give me 72 virgins?</t>
+  </si>
+  <si>
+    <t>Don't get me wrong I think what Hitler did and stood for is horrible but you have to admit he was was spot on about ___.</t>
+  </si>
+  <si>
+    <t>Don't get me wrong. I think what Hitler did and stood for is horrible, but you have to admit he was was spot on about ___.</t>
+  </si>
+  <si>
+    <t>Girls just wanna have ___.</t>
+  </si>
+  <si>
+    <t>Google recently changed its corporate slogan from "Don't be Evil" to ___.</t>
+  </si>
+  <si>
+    <t>Google recently changed its corporate slogan from "Don't Be Evil" to ___.</t>
+  </si>
+  <si>
+    <t>Growing up I didn't have many friends. Kids always teased me about my fascination with ___.</t>
+  </si>
+  <si>
+    <t>Growing up I didn't have many friends. Kids always teased me for my fascination with ___.</t>
+  </si>
+  <si>
+    <t>Hallelujah it's raining ___.</t>
+  </si>
+  <si>
+    <t>Hallelujah, it's raining ___.</t>
+  </si>
+  <si>
+    <t>I didn't want to tell it to her face, but her baby reminds me of ___.</t>
+  </si>
+  <si>
+    <t>I didn't want to tell it to their faces but their baby reminds me of ___.</t>
+  </si>
+  <si>
+    <t>I expected it would suck but the opposite happened. "___: The Movie" is now officially my favorite movie ever.</t>
+  </si>
+  <si>
+    <t>I expected it would suck, but the opposite happened. "___: The Movie" is now officially my favorite movie ever.</t>
+  </si>
+  <si>
+    <t>I gave my girlfriend ___ last Valentine's Day. Now I cry myself to sleep every night, all alone in my cold hard bed.</t>
+  </si>
+  <si>
+    <t>I hate it when I take a girl home and find out she has ___ where a vagina should be.</t>
+  </si>
+  <si>
+    <t>I hate it when I take a girl home and find out she has ___ where should be a vagina.</t>
+  </si>
+  <si>
+    <t>I knew it meant trouble when I heard a voice scream "___!" mid flight. And unfortunately I was right.</t>
+  </si>
+  <si>
+    <t>I knew it meant trouble when I heard a voice scream "___!" mid-flight. And unfortunately I was right.</t>
+  </si>
+  <si>
+    <t>I love the smell of ___ in the morning.</t>
+  </si>
+  <si>
+    <t>I really miss the good old days when men were men and ___ could not vote.</t>
+  </si>
+  <si>
+    <t>I would move heaven and earth, I would split the ocean, even ___ would not be able to stop me from being with you my love.</t>
+  </si>
+  <si>
+    <t>I would move heaven and earth, I would split the ocean, even ___ would not be able to stop me from being with you, my love.</t>
+  </si>
+  <si>
+    <t>I'd rather stick my dick in ___ than ___.</t>
+  </si>
+  <si>
+    <t>I'd rather stick my dick in ___ then ___.</t>
+  </si>
+  <si>
+    <t>I'm afraid the only way to exorcise this demon is by ___.</t>
+  </si>
+  <si>
+    <t>In a riveting speech, Gandhi convinced his followers of the virtues of ___.</t>
+  </si>
+  <si>
+    <t>In a riveting speech Ghandi convinced his followers of the virtues of ___.</t>
+  </si>
+  <si>
+    <t>In the next Marvel movie we will witness ___ take on ___ for world domination.</t>
+  </si>
+  <si>
+    <t>Instead of waterboarding Guantanamo Bay prisoners now have to endure ___, sometimes for hours on end.</t>
+  </si>
+  <si>
+    <t>Instead of waterboarding, Guantanamo Bay prisoners now have to endure ___, sometimes for hours on end.</t>
+  </si>
+  <si>
+    <t>Last night my husband and I invited ___ over for a threesome. How YOLO of us, right?</t>
+  </si>
+  <si>
+    <t>Remember every time you think of ___, The Lord kills ___.</t>
+  </si>
+  <si>
+    <t>Remember, every time you think of ___, The Lord kills ___.</t>
+  </si>
+  <si>
+    <t>Sir, for the last time. We simply do not allow ___ in here. You will have to find another establishment.</t>
+  </si>
+  <si>
+    <t>So happy the doctor was able to get ___ out. Next time I'll be more careful with what I put up my butt, lol! #neveragain.</t>
+  </si>
+  <si>
+    <t>So happy the doctor was able to get ___ out. Next time I'll definitely be more careful with what I put up my butt, lol! #neveragain.</t>
+  </si>
+  <si>
+    <t>So you're telling me we can land a man on the moon but ___ is out of the question?</t>
+  </si>
+  <si>
+    <t>So you're telling me we can land a man on the moon, but ___ is out of the question?</t>
+  </si>
+  <si>
+    <t>Suzy if you don't eat your food and keep misbehaving ___ will come and get you.</t>
+  </si>
+  <si>
+    <t>Suzy, if you don't eat your food and keep misbehaving, ___ will come and get you.</t>
+  </si>
+  <si>
+    <t>The only thing worse than ___ is ___.</t>
+  </si>
+  <si>
+    <t>The only thing worse then ___ is ___.</t>
+  </si>
+  <si>
+    <t>There is abundant scientific evidence that for some people vaccination might lead to ___ later in life.</t>
+  </si>
+  <si>
+    <t>Tonight on the No Spin Zone! Bill O'Reilly will be debating ___ on the topic of ___.</t>
+  </si>
+  <si>
+    <t>Tonight on the "No Spin Zone!" Bill O'Riley will be debating ___ on the topic of ___.</t>
+  </si>
+  <si>
+    <t>When she was little my sister could not pronounce my name correctly so she called me ___ instead. It has stuck ever since.</t>
+  </si>
+  <si>
+    <t>When she was little, my sister could not pronounce my name correctly, so she called me ___ instead. It has stuck ever since.</t>
+  </si>
+  <si>
+    <t>You get ___! You get ___! You get ___! You get ___! You get ___! You get ___! You get ___! You get ___! You get ___! Everybody gets ___!</t>
+  </si>
+  <si>
+    <t>You get ___! You get ___! You get ___! You get ___! You get ___! You get ___! You get ___! You get ___! You get ___! Everybody gets ___!!!</t>
+  </si>
+  <si>
+    <t>Damn it feels good to be ___.</t>
+  </si>
+  <si>
+    <t>After reading Stephen Hawking's latest theory of ___ I curled up into a corner and cried for three days straight.</t>
+  </si>
+  <si>
+    <t>Give me liberty or give me ___.</t>
+  </si>
+  <si>
+    <t>Before Marilyn Monroe came along, Hugh Hefner wanted ___ as the first Playboy centerfold. Unfortunately for everyone, that deal fell through.</t>
+  </si>
+  <si>
+    <t>___ fun for the whole family!</t>
+  </si>
+  <si>
+    <t>A genie granted me three wishes, but I wasted them all trying to wish for ___.</t>
+  </si>
+  <si>
+    <t>All I want for my birthday is ___.</t>
+  </si>
+  <si>
+    <t>Always a bridesmaid, never ___.</t>
+  </si>
+  <si>
+    <t>An apple a day keeps ___ away.</t>
+  </si>
+  <si>
+    <t>At the next home game, the first 1,000 attendees will get commerorative ___ bobble head.</t>
+  </si>
+  <si>
+    <t>Eat, sleep, ___, repeat.</t>
+  </si>
+  <si>
+    <t>I got so drunk last night that I ended up making out with ___.</t>
+  </si>
+  <si>
+    <t>I thought I was ___, but it turns out I was ___.</t>
+  </si>
+  <si>
+    <t>I thought passing a kidney stone was painful, but ___ is way worse.</t>
+  </si>
+  <si>
+    <t>I used to watch porn.  But now I watch ___.</t>
+  </si>
+  <si>
+    <t>If ___ isn't supposed to go in the microwave, why does it fit?</t>
+  </si>
+  <si>
+    <t>If I had a super power, it would be ___.</t>
+  </si>
+  <si>
+    <t>If the stars align, this will be a good month for ___.</t>
+  </si>
+  <si>
+    <t>In addition to breakfast, McDonalds now serves ___ all day.</t>
+  </si>
+  <si>
+    <t>It might be the bath salts talking, but I love ___.</t>
+  </si>
+  <si>
+    <t>Men are from Mars.  Woman are from ___.</t>
+  </si>
+  <si>
+    <t>Mexico will never pay for a wall, but it will pay for ___.</t>
+  </si>
+  <si>
+    <t>Milk, milk, lemonade, around the corner ___ is made.</t>
+  </si>
+  <si>
+    <t>My problem is that I can't get enough of ___.</t>
+  </si>
+  <si>
+    <t>Next month, Apple is introducing the new i___.</t>
+  </si>
+  <si>
+    <t>No matter how many times I shower, I'll never be able to get rid of the stench of ___.</t>
+  </si>
+  <si>
+    <t>No shirt, no shoes, no ___.</t>
+  </si>
+  <si>
+    <t>North Korea will achieve global domination with ___.</t>
+  </si>
+  <si>
+    <t>Now, I an't sayin' she a gold digger, but she ain't messin' with no ___.</t>
+  </si>
+  <si>
+    <t>Obama... Half black, half white, all ___.</t>
+  </si>
+  <si>
+    <t>Pixar's next movie is Finding ___</t>
+  </si>
+  <si>
+    <t>The fire alarm didn't wake me, but ___ sure did.</t>
+  </si>
+  <si>
+    <t>The first settlers on Mars will need to bring a whole lot of ___</t>
+  </si>
+  <si>
+    <t>The Juice is loose.  And by Juice I mean ___.</t>
+  </si>
+  <si>
+    <t>The next Super Bowl will have a surprise performance by ___.</t>
+  </si>
+  <si>
+    <t>There are two types of people in the world. People who are ___, and people who aren't.</t>
+  </si>
+  <si>
+    <t>This is the wettest I've been since having ___.</t>
+  </si>
+  <si>
+    <t>When life hands you lemons, make ___.</t>
+  </si>
+  <si>
+    <t>When the blacklight came on, you could see there was ___ everywhere.</t>
+  </si>
+  <si>
+    <t>___ gave me AIDS.</t>
+  </si>
+  <si>
+    <t>___ has taken more lives than Hitler and smoking combined.</t>
+  </si>
+  <si>
+    <t>___ is considered a compliment in most of Europe.</t>
+  </si>
+  <si>
+    <t>___ made my moneyshot twice as powerful.</t>
+  </si>
+  <si>
+    <t>___, or as I like to call it, ___.</t>
+  </si>
+  <si>
+    <t>___: Not just for kids anymore!</t>
+  </si>
+  <si>
+    <t>___: the national sport of Africa.</t>
+  </si>
+  <si>
+    <t>Before attempting anal for the first time, I've been told it's best to start with ___.</t>
+  </si>
+  <si>
+    <t>Dan Brown's latest novel explores the hidden symbolic meaning behind ___.</t>
+  </si>
+  <si>
+    <t>I'm a dirty, dirty girl. Nothing gets me going like ___.</t>
+  </si>
+  <si>
+    <t>I'm not a racist, but I love ___.</t>
+  </si>
+  <si>
+    <t>I'm not usually one for eating contests, but when I found out it was for ___, I just couldn't help myself.</t>
+  </si>
+  <si>
+    <t>If at first you don't succeed, try, try, try ___.</t>
+  </si>
+  <si>
+    <t>It may be totally unconventional and shunned by society in general, but when you come right down to it, ___ is the best purchase I've ever made.</t>
+  </si>
+  <si>
+    <t>Loosely translated, my name means ___ in Japanese.</t>
+  </si>
+  <si>
+    <t>My proctologist was quite impressed when he saw ___ on my x-rays.</t>
+  </si>
+  <si>
+    <t>Nothing says, "I trust you," like ___.</t>
+  </si>
+  <si>
+    <t>Thanksgiving dinner was forever changed when my dad brought up ___.</t>
+  </si>
+  <si>
+    <t>The ___ Spangled Banner.</t>
+  </si>
+  <si>
+    <t>Uber's latest service combines the convenience of ___ with the luxury of ___.</t>
+  </si>
+  <si>
+    <t>While writing my wedding vows, I often looked to ___ for inspiration.</t>
+  </si>
+  <si>
+    <t>You had me at ___.</t>
+  </si>
+  <si>
+    <t>You say potato, I say ___.</t>
+  </si>
+  <si>
+    <t>___: Just sayin'.</t>
+  </si>
+  <si>
+    <t>___: not even once.</t>
+  </si>
+  <si>
+    <t>A wild ___ appears!
+You used ___! It's super effective!</t>
+  </si>
+  <si>
+    <t>According to a new UN treaty, ___ now qualifies as a weapon of mass destruction.</t>
+  </si>
+  <si>
+    <t>Ever since "the incident," every time I close my eyes, I still see ___.</t>
+  </si>
+  <si>
+    <t>Gentleman, I'm sure you're wondering why I asked you here this evening.
+It's a long story, but it all began with ___.</t>
+  </si>
+  <si>
+    <t>I am become ___, the destroyer of worlds.</t>
+  </si>
+  <si>
+    <t>I was once sent to the HR department for an incident involving ___, ___, and (allegedly) ___.</t>
+  </si>
+  <si>
+    <t>I'm gonna go build my own theme park! With ___! And ___!</t>
+  </si>
+  <si>
+    <t>I'm so hungry, I could eat ___.</t>
+  </si>
+  <si>
+    <t>If you want a picture of the future, imagine a boot stamping on ___--forever.</t>
+  </si>
+  <si>
+    <t>In a move that has Hollywood insiders baffled, the producers of American Idol have decided to replace host Ryan Seacrest with ___.</t>
+  </si>
+  <si>
+    <t>In my opinion, ___ is grounds for justifiable homicide.</t>
+  </si>
+  <si>
+    <t>It took seven years in a remote Tibetan monastery, but I finally learned the art of ___.</t>
+  </si>
+  <si>
+    <t>Like Midas reborn, everything she touches turns to ___.</t>
+  </si>
+  <si>
+    <t>Oh my God!
+They killed ___!
+You bastards!</t>
+  </si>
+  <si>
+    <t>PornHub.com's single most popular video features ___ and ___.</t>
+  </si>
+  <si>
+    <t>So then he says, "If you want to make this relationship work, you need to give up ___ and ___."
+As.  If.</t>
+  </si>
+  <si>
+    <t>Thanks to ___, I now have a crippling fear of ___.</t>
+  </si>
+  <si>
+    <t>The best part of waking up is ___.</t>
+  </si>
+  <si>
+    <t>Three bullet points from my OKCupid® profile: ___, ___, and, (most importantly) ___.</t>
+  </si>
+  <si>
+    <t>Tonight on "My Super Sweet 16," Stephani's parents give her ___.</t>
+  </si>
+  <si>
+    <t>Tonight on "Supernatural," Sam and Dean are forced to confront ___ using only ___.</t>
+  </si>
+  <si>
+    <t>What do we want?  ___!
+When do we want it?  Now!</t>
+  </si>
+  <si>
+    <t>When I'm dating somebody, I can overlook ___ and ___, but ___ is a deal-breaker.</t>
+  </si>
+  <si>
+    <t>William Shatner's shocking new autobiography is titled "___: The Final Frontier."</t>
+  </si>
+  <si>
+    <t>___ is many things to many people, as you will see and learn.</t>
+  </si>
+  <si>
+    <t>___: Evidence that this is the darkest timeline.</t>
+  </si>
+  <si>
+    <t>___: It even makes its own gravy!</t>
+  </si>
+  <si>
+    <t>___: My body is ready.</t>
+  </si>
+  <si>
+    <t>___: The struggle is real.</t>
+  </si>
+  <si>
+    <t>___: Wake up sheeple!</t>
+  </si>
+  <si>
+    <t>"___ Spice" was one of the lesser-known Spice Girls.</t>
+  </si>
+  <si>
+    <t>And behold, the fifth seal opened, and there was ___ and with it came ___.</t>
+  </si>
+  <si>
+    <t>As a staunch libertarian, I believe the only role for government is ___.</t>
+  </si>
+  <si>
+    <t>Baby I'm ___ on the streets, ___ in the sheets.</t>
+  </si>
+  <si>
+    <t>Code Three, request backup!
+I'm surrounded by ___!</t>
+  </si>
+  <si>
+    <t>Forget Fifty Shades of Grey...
+Give me Fifty Shades of ___!</t>
+  </si>
+  <si>
+    <t>I never karaoke, because I always end up getting drunk and singing a song about ___.</t>
+  </si>
+  <si>
+    <t>I'm constantly confusing ___ and ___.</t>
+  </si>
+  <si>
+    <t>I'm finally writing that book, it's titled "Zen and the Art of ___."</t>
+  </si>
+  <si>
+    <t>Instructions unclear: dick stuck in ___.</t>
+  </si>
+  <si>
+    <t>It's all about ___ - no ___.</t>
+  </si>
+  <si>
+    <t>Let it go!
+Let it go!
+___ never bothered me anyway...</t>
+  </si>
+  <si>
+    <t>My therapist says I have an unhealthy attitude about ___.</t>
+  </si>
+  <si>
+    <t>Next on Adult Swim™: The Adventures of ___ and ___.</t>
+  </si>
+  <si>
+    <t>Thank you Alex, I'll take ___ for 800.</t>
+  </si>
+  <si>
+    <t>Whatever else may change, one thing is certain: you can't unfuck ___.</t>
+  </si>
+  <si>
+    <t>When I was young, the only thing that kept me off the streets was ___.</t>
+  </si>
+  <si>
+    <t>Yo bro, you tried ___?
+Shit's straight fire.</t>
+  </si>
+  <si>
+    <t>You kids with your fancy degrees...
+They don't teach ya' nothin' 'bout ___ in school.</t>
+  </si>
+  <si>
+    <t>Let it go! Let it go! ___never bothered me anyway…</t>
+  </si>
+  <si>
+    <t>___ has become part of my daily routine.</t>
+  </si>
+  <si>
+    <t>___: Has science gone too far?</t>
+  </si>
+  <si>
+    <t>"___: The Movie!" Coming to theaters soon.</t>
+  </si>
+  <si>
+    <t>"This workplace has been 0 days without ___."</t>
+  </si>
+  <si>
+    <t>Ah, excuse me, waiter, I see that the restaurant offers ___. Is that gluten-free?</t>
+  </si>
+  <si>
+    <t>Anonymous's next target? ___.</t>
+  </si>
+  <si>
+    <t>At my father's funeral, I put ___ in the casket with him.</t>
+  </si>
+  <si>
+    <t>During his short-lived boxing career, the Messiah fought under the name Jesus "___" Christ.</t>
+  </si>
+  <si>
+    <t>Finding ___ in your bed the next morning.</t>
+  </si>
+  <si>
+    <t>I asked my boyfriend to surprise me for my birthday, I never thought he'd give me ___.</t>
+  </si>
+  <si>
+    <t>I couldn't find a condom, so I had to use ___ instead.</t>
+  </si>
+  <si>
+    <t>I couldn't help but give a buck to the homeless guy with the sign: "Will work for ___."</t>
+  </si>
+  <si>
+    <t>I discovered my son was gay when I found a magazine about ___ in his bedroom.</t>
+  </si>
+  <si>
+    <t>I get off to ___ everyday.</t>
+  </si>
+  <si>
+    <t>I have one simple request: ___.</t>
+  </si>
+  <si>
+    <t>I would learn Japanese specifically for ___.</t>
+  </si>
+  <si>
+    <t>I'm having difficulty finding a college that will allow me to pursue a degree in ___.</t>
+  </si>
+  <si>
+    <t>Making love to the person reading this card is like ___.</t>
+  </si>
+  <si>
+    <t>Nothing says true love quite like ___.</t>
+  </si>
+  <si>
+    <t>Oh no! ___! My only weakness!</t>
+  </si>
+  <si>
+    <t>Six Flags' new thrill ride lets you experience ___ at 120 miles per hour.</t>
+  </si>
+  <si>
+    <t>Taylor Swift's most recent boyfriend: ___.</t>
+  </si>
+  <si>
+    <t>That time you got drunk and accidentally told your boss about your ___ fetish.</t>
+  </si>
+  <si>
+    <t>The latest 20/20 episode: The War on ___.</t>
+  </si>
+  <si>
+    <t>We broke up after I found his stash of ___.</t>
+  </si>
+  <si>
+    <t>When you ask for a raise and get ___ instead.</t>
+  </si>
+  <si>
+    <t>When you have a great dream about ___, but realize you can't tell anyone.</t>
+  </si>
+  <si>
+    <t>When you're hammered AF and think ___ is a good idea.</t>
+  </si>
+  <si>
+    <t>You can only save the world with ___!</t>
+  </si>
+  <si>
+    <t>___. What's the worst that can happen?</t>
+  </si>
+  <si>
+    <t>Anyone who knows me knows that I love ___.</t>
+  </si>
+  <si>
+    <t>As a stripper, I have one rule: No ___.</t>
+  </si>
+  <si>
+    <t>Disabled children. They never say no to ___.</t>
+  </si>
+  <si>
+    <t>Due to George R.R. Martin's persistent writer's block, HBO is now developing a new fantasy epic: Game of ___.</t>
+  </si>
+  <si>
+    <t>FACT: ___ causes ___.</t>
+  </si>
+  <si>
+    <t>I feel the need. The need for ___.</t>
+  </si>
+  <si>
+    <t>I like my ___ how I like my ___: ___.</t>
+  </si>
+  <si>
+    <t>I miss the good old days when ___ could be done without ___.</t>
+  </si>
+  <si>
+    <t>I still can't get the taste of ___ out of my mouth.</t>
+  </si>
+  <si>
+    <t>I'm never going to be rich and famous because I'm too busy ___.</t>
+  </si>
+  <si>
+    <t>In hindsight, it seems obvious that ___ was never going to cure ___.</t>
+  </si>
+  <si>
+    <t>Is it OK that I sometimes fantasize about ___?</t>
+  </si>
+  <si>
+    <t>Make ___, not ___.</t>
+  </si>
+  <si>
+    <t>My therapist has uncovered repressed memories of ___ from my early childhood.</t>
+  </si>
+  <si>
+    <t>Please don’t get upset. I didn't mean for ___ to scare you.</t>
+  </si>
+  <si>
+    <t>Rape is never acceptable, especially when it involves ___.</t>
+  </si>
+  <si>
+    <t>Understand this young lady. If you dress like ___, you're gonna find yourself ___.</t>
+  </si>
+  <si>
+    <t>You know you're in love when ___ makes you horny.</t>
+  </si>
+  <si>
+    <t>When the US State Department was evacuated from Yemen, they left a warehouse full of ___.</t>
+  </si>
+  <si>
+    <t>This hashtag will save the world: #___.</t>
+  </si>
+  <si>
+    <t>Our proposal win themes are ___ and ___.</t>
+  </si>
+  <si>
+    <t>The most popular Google search in rural Zambia is "___."</t>
+  </si>
+  <si>
+    <t>Sustainability will be assured through a razor-sharp focus on ___.</t>
+  </si>
+  <si>
+    <t>Our theory of change: If ___, then ___.</t>
+  </si>
+  <si>
+    <t>Oh joy! Another workshop on ___.</t>
+  </si>
+  <si>
+    <t>We're not so much faith-based as ___-based.</t>
+  </si>
+  <si>
+    <t>USAID brought ___ to the people of Haiti when they really needed ___.</t>
+  </si>
+  <si>
+    <t>Save the Children will now be saving ___.</t>
+  </si>
+  <si>
+    <t>I'm pretty sure "capacity building" is just a euphemism for ___.</t>
+  </si>
+  <si>
+    <t>Ebola was eradicated by injecting ___ with ___.</t>
+  </si>
+  <si>
+    <t>Buy one, give one should be reserved for ___.</t>
+  </si>
+  <si>
+    <t>The best in-kind donation ever received was ___.</t>
+  </si>
+  <si>
+    <t>As of today, all local staff will be paid in ___.</t>
+  </si>
+  <si>
+    <t>Angelina Jolie will now be special envoy for ___.</t>
+  </si>
+  <si>
+    <t>___ is our new performance indicator.</t>
+  </si>
+  <si>
+    <t>Vegemite: easier to spread than ___.</t>
+  </si>
+  <si>
+    <t>The humanitarian situation in Syria reminds me of ___.</t>
+  </si>
+  <si>
+    <t>I took inspiration from ___ where I started ___.</t>
+  </si>
+  <si>
+    <t>___ is not reimbursable.</t>
+  </si>
+  <si>
+    <t>___ is the next development panacea.</t>
+  </si>
+  <si>
+    <t>GSMA is now promoting smartphones for ___.</t>
+  </si>
+  <si>
+    <t>The data collected with SurveyCTO revealed that the project is getting the greatest results from ___.</t>
+  </si>
+  <si>
+    <t>The Gates Foundation is launching a small grants program to eradicate ___.</t>
+  </si>
+  <si>
+    <t>To the surprise of funders, Joseph Mbuntu spent the $10000 USD he received from GiveDirectly on ___.</t>
+  </si>
+  <si>
+    <t>I spent all my hazard pay on ___.</t>
+  </si>
+  <si>
+    <t>My NGO name means ___ in Kiswahili.</t>
+  </si>
+  <si>
+    <t>My only real Peace Corps accomplishment was ___.</t>
+  </si>
+  <si>
+    <t>The last mile is paved with ___.</t>
+  </si>
+  <si>
+    <t>___ is a healthy meal, right?</t>
+  </si>
+  <si>
+    <t>___ is the best birth control.</t>
+  </si>
+  <si>
+    <t>Before kids, I never thought about ___.</t>
+  </si>
+  <si>
+    <t>I caught the kids getting into ___.</t>
+  </si>
+  <si>
+    <t>I think about ___ while breastfeeding.</t>
+  </si>
+  <si>
+    <t>I'm an asshole parent because ___.</t>
+  </si>
+  <si>
+    <t>Our code name for sex is ___.</t>
+  </si>
+  <si>
+    <t>Please don't put ___ in your mouth.</t>
+  </si>
+  <si>
+    <t>The best birthday parties have ___.</t>
+  </si>
+  <si>
+    <t>The best part of being a Stay at Home Parent is ___.</t>
+  </si>
+  <si>
+    <t>Trying to get pregnant? Try ___!</t>
+  </si>
+  <si>
+    <t>We were late at school today because of ___.</t>
+  </si>
+  <si>
+    <t>___. is what I love most about my body.</t>
+  </si>
+  <si>
+    <t>___. Part of a balanced breakfast.</t>
+  </si>
+  <si>
+    <t>___. That's a deal breaker.</t>
+  </si>
+  <si>
+    <t>___. There's a fetish for that.</t>
+  </si>
+  <si>
+    <t>I was caught naked eating ___.</t>
+  </si>
+  <si>
+    <t>Roses are red. Violets are blue. That being said, ___</t>
+  </si>
+  <si>
+    <t>___ gets me all hot and bothered.</t>
+  </si>
+  <si>
+    <t>___ is a bad idea. The More You Know …</t>
+  </si>
+  <si>
+    <t>___ is totally acceptable. If you're a freak.</t>
+  </si>
+  <si>
+    <t>___ was my old college nickname.</t>
+  </si>
+  <si>
+    <t>___. #squadgoals</t>
+  </si>
+  <si>
+    <t>___. #whitepeopleproblems</t>
+  </si>
+  <si>
+    <t>___. Sounds like something Cartman would like.</t>
+  </si>
+  <si>
+    <t>___. Yeah, I'll blame that on the dog.</t>
+  </si>
+  <si>
+    <t>“The pursuit of ___,” starring Will Smith.</t>
+  </si>
+  <si>
+    <t>A bottle of tequila + ___ = A Night to Remember.</t>
+  </si>
+  <si>
+    <t>Babe, come over, I'm ___.</t>
+  </si>
+  <si>
+    <t>Charlie Sheen holds the record for ___ the fastest.</t>
+  </si>
+  <si>
+    <t>Dammit, I don't care what anyone thinks! I'm in love with ___.</t>
+  </si>
+  <si>
+    <t>Don't you dare fuck with ___.</t>
+  </si>
+  <si>
+    <t>Every time a bell rings, an angel gets ___.</t>
+  </si>
+  <si>
+    <t>I got a pop-up book entitled “___” for my 9-year-old nephew's birthday.</t>
+  </si>
+  <si>
+    <t>No sleep til' ___.</t>
+  </si>
+  <si>
+    <t>Now this is a story all about ___.</t>
+  </si>
+  <si>
+    <t>Only you can prevent ___.</t>
+  </si>
+  <si>
+    <t>Ronda Rousey gets thoroughly arouse by ___.</t>
+  </si>
+  <si>
+    <t>Casa Bonita is now offering a 2-for-1 Cliff diving and ___.</t>
+  </si>
+  <si>
+    <t>Colorado natives know that when it smells like ___, it's going to snow.</t>
+  </si>
+  <si>
+    <t>Colorado's next big public art installation will depict ___.</t>
+  </si>
+  <si>
+    <t>Have you tried a Denver omelette, but with ___ instead of ham? It's the only way I'll order mine now.</t>
+  </si>
+  <si>
+    <t>I belong with you, you belong with me, you're ___.</t>
+  </si>
+  <si>
+    <t>I don't do the BolderBOULDER, I run ___ instead.</t>
+  </si>
+  <si>
+    <t>I was supposed to go to Taste of Colorado, but I got stuck ___ instead.</t>
+  </si>
+  <si>
+    <t>It's a secret, but if you whisper ___ to an illegal Pete's employee, they'll add ___ to your burrito.</t>
+  </si>
+  <si>
+    <t>No one ever talks about ___ on the top of Lookout Mountain.</t>
+  </si>
+  <si>
+    <t>Now you have a friend in the ___ business." - Tom Shane</t>
+  </si>
+  <si>
+    <t>People in Boulder really frown upon ___.</t>
+  </si>
+  <si>
+    <t>People think CU-Boulder is the better school, but Metro students are more likely to be ___.</t>
+  </si>
+  <si>
+    <t>Since marijuana was legalized in Colorado, cases of ___ have skyrocketed.</t>
+  </si>
+  <si>
+    <t>Summit County: Come for the mountains, stay for ___.</t>
+  </si>
+  <si>
+    <t>Ted Haggard was banned from New Life Church after he was found in a hotel room with ___.</t>
+  </si>
+  <si>
+    <t>The difference between New Mexico and Colorado green chile is ___.</t>
+  </si>
+  <si>
+    <t>The edible contains a potent dose of ___. Can you feel it yet?</t>
+  </si>
+  <si>
+    <t>The Mile High Club? Amateur. I joined the ___ club last year.</t>
+  </si>
+  <si>
+    <t>The Nuggets never should have traded Chauncey Billups for ___.</t>
+  </si>
+  <si>
+    <t>When they built NORAD in 1957, they never could have imagined it would need to withstand ___.</t>
+  </si>
+  <si>
+    <t>You shouldn't swim in the Platte River, they found ___ in there.</t>
+  </si>
+  <si>
+    <t>___ of Unusual Size? I don't believe in them.</t>
+  </si>
+  <si>
+    <t>“___ victims should make the best of a bad situation.” – Rick Santorum</t>
+  </si>
+  <si>
+    <t>___ hit me right in the feels.</t>
+  </si>
+  <si>
+    <t>___ is the reason for my pass request.</t>
+  </si>
+  <si>
+    <t>___ is the reason we constantly have safety briefs.</t>
+  </si>
+  <si>
+    <t>___ is what Basic Training is all about.</t>
+  </si>
+  <si>
+    <t>___ led me to receive an Article 15.</t>
+  </si>
+  <si>
+    <t>___ this weekend is going to really piss off Sarge.</t>
+  </si>
+  <si>
+    <t>___ was the strangest thing I've seen in the US military.</t>
+  </si>
+  <si>
+    <t>___: The truth about Benghazi.</t>
+  </si>
+  <si>
+    <t>___. It's finger lickin' good!</t>
+  </si>
+  <si>
+    <t>Based on my experience, this could easily be fixed by ___.</t>
+  </si>
+  <si>
+    <t>Cluster bombing from B-52s is very, very accurate. The bombs always hit ___.</t>
+  </si>
+  <si>
+    <t>Coming this holiday season, Metal Gear Solid: ___.</t>
+  </si>
+  <si>
+    <t>First there was a war on drugs, then a war on terrorism, what we really need is a war on ___.</t>
+  </si>
+  <si>
+    <t>I came here to fuck or fight, and I don't see ___.</t>
+  </si>
+  <si>
+    <t>I enjoy ___ in the barrack's restrooms.</t>
+  </si>
+  <si>
+    <t>I love ___ the most at Fort Bragg.</t>
+  </si>
+  <si>
+    <t>I spent my day off in Iraq ___.</t>
+  </si>
+  <si>
+    <t>I'll trade you the Skittles in my MRE in exchange for ___.</t>
+  </si>
+  <si>
+    <t>In the gas chamber, it feels like ___.</t>
+  </si>
+  <si>
+    <t>It's hard to stand at parade rest when you're ___.</t>
+  </si>
+  <si>
+    <t>It's simple: we kill: ___.</t>
+  </si>
+  <si>
+    <t>Mr. President the situation is worse than we thought. We're going to DEFCON ___.</t>
+  </si>
+  <si>
+    <t>Nobody puts ___ in the corner.</t>
+  </si>
+  <si>
+    <t>Please forgive me, Lord, but when I get home from deployment, I'm ___.</t>
+  </si>
+  <si>
+    <t>Staff Sergeant, this weekend I really fucked up by ___.</t>
+  </si>
+  <si>
+    <t>Thank God for alcohol and ___.</t>
+  </si>
+  <si>
+    <t>That's the most fun I've ever had without ___.</t>
+  </si>
+  <si>
+    <t>The Army says ___ is not allowed but there's no rule against how fast you can wash your penis.</t>
+  </si>
+  <si>
+    <t>The best definition of the USAF is ___.</t>
+  </si>
+  <si>
+    <t>The best recruitment method to date is ___.</t>
+  </si>
+  <si>
+    <t>The best thing about being a female soldier is ___.</t>
+  </si>
+  <si>
+    <t>The few, the proud, ___.</t>
+  </si>
+  <si>
+    <t>The ones who hate war the most are the ones who ___.</t>
+  </si>
+  <si>
+    <t>The Sergeant Major of the Marine Corps caught me ___ in my barracks room.</t>
+  </si>
+  <si>
+    <t>This one time in Basic, I was caught ___.</t>
+  </si>
+  <si>
+    <t>USAF has changed their motto to read: ___.</t>
+  </si>
+  <si>
+    <t>Waterboarding is ___.</t>
+  </si>
+  <si>
+    <t>We were losing the battle, until our reinforcements brought ___ to the battlefield.</t>
+  </si>
+  <si>
+    <t>While standing in battalion formation, I often think about ___.</t>
+  </si>
+  <si>
+    <t>Whoever said "time cures all wounds" has clearly never experienced ___.</t>
+  </si>
+  <si>
+    <t>Why would I want ___ stuffed down my throat?</t>
+  </si>
+  <si>
+    <t>You can have ___ when you pry it from my cold, dead hands!</t>
+  </si>
+  <si>
+    <t>You might be a veteran if you consider ___ a good time.</t>
+  </si>
+  <si>
+    <t>A loaf of bread, a glass of wine, and ___.</t>
+  </si>
+  <si>
+    <t>Each freckle is a soul that a ginger has ___.</t>
+  </si>
+  <si>
+    <t>He's ___. She's ___. Together they fight crime!</t>
+  </si>
+  <si>
+    <t>I got a job once cleaning ___.</t>
+  </si>
+  <si>
+    <t>I was thinking of the immortal words of Socrates who said, “I drank ___???”</t>
+  </si>
+  <si>
+    <t>I'd like to force the members of the Westboro Baptist Church to ___ each other. Repeatedly.</t>
+  </si>
+  <si>
+    <t>I'd make a card with Star Trek references, but the ___ at Paramount are lawsuit-happy.</t>
+  </si>
+  <si>
+    <t>If I hear ___ one more time, I'm going to punch a baby.</t>
+  </si>
+  <si>
+    <t>“If it's a legitimate ___, the female body has ways of shutting that whole thing down.” - Todd Akin</t>
+  </si>
+  <si>
+    <t>Is this a dagger I see before me? No, it's ___.</t>
+  </si>
+  <si>
+    <t>It's 106 miles to Chicago, we got a full tank of gas, ___, it's dark… and we're wearing sunglasses.</t>
+  </si>
+  <si>
+    <t>My dissertation wasn't complete until I figured out the connection between Milton's “Paradise Lost” and ___.</t>
+  </si>
+  <si>
+    <t>My Love is like a ___.</t>
+  </si>
+  <si>
+    <t>So then he says, “If you want to make this relationship work, you need to give up ___ and ___.” As. If.</t>
+  </si>
+  <si>
+    <t>The latest miracle is a statue whose eyes bleed when in the presence of ___.</t>
+  </si>
+  <si>
+    <t>Dear Agony Aunt, I'm having some trouble with ___ and I need your advice.</t>
+  </si>
+  <si>
+    <t>Next on Sky Sports: The World Championship of ___.</t>
+  </si>
+  <si>
+    <t>Next on Sky Sports: The World Champsion of ___.</t>
+  </si>
+  <si>
+    <t>Nobody expects the Spanish Inquisition. Our chief weapons are fear, surprise, and ___.</t>
+  </si>
+  <si>
+    <t>The Natural History Museum has just opened an interactive exhibit on ___.</t>
+  </si>
+  <si>
+    <t>The TFL apologizes for the delay in train service due to ___. </t>
+  </si>
+  <si>
+    <t>The theme for next year's Eurovision Song Contest is "We are ___."</t>
+  </si>
+  <si>
+    <t>Today on The Jeremy Kyle Show: "Help! My son is ___!"</t>
+  </si>
+  <si>
+    <t>Next week on Discovery Channel, one man must survive in the depths of the Amazon with only ___ and his wits.</t>
+  </si>
+  <si>
+    <t>Whenever I feel lonely, I put on some Barry White, dress up like ___ and dance seductively in front of the mirror.</t>
+  </si>
+  <si>
+    <t>Dear Congress, before cutting the military budget, you might want to think about ___.</t>
+  </si>
+  <si>
+    <t>___ happens because I touch myself at night.</t>
+  </si>
+  <si>
+    <t>___. A woman's best friend.</t>
+  </si>
+  <si>
+    <t>___. The reason I cry myself to sleep at night.</t>
+  </si>
+  <si>
+    <t>___. You complete me.</t>
+  </si>
+  <si>
+    <t>3 things that improve with age. 1. Men 2. Wine 3. ___</t>
+  </si>
+  <si>
+    <t>Acid trips always start with ___ &amp; end with ___.</t>
+  </si>
+  <si>
+    <t>Ain't no sunshine when she's ___.</t>
+  </si>
+  <si>
+    <t>Autopsy results show his penis was severed by ___.</t>
+  </si>
+  <si>
+    <t>Congress declared Marshall law because of ___ &amp; ___.</t>
+  </si>
+  <si>
+    <t>Donald Trump eats ___ for breakfast.</t>
+  </si>
+  <si>
+    <t>I fill my butt with ___ for storage purposes.</t>
+  </si>
+  <si>
+    <t>I was forced to resign when the pictures of ___ surfaced.</t>
+  </si>
+  <si>
+    <t>I'm a glass half full of ___ kind of person.</t>
+  </si>
+  <si>
+    <t>I'm getting to old for ___.</t>
+  </si>
+  <si>
+    <t>Kanye West attributes his genius to ___.</t>
+  </si>
+  <si>
+    <t>Please keep hands, feet and ___ inside the vehicle at all times.</t>
+  </si>
+  <si>
+    <t>Step 1. ___ Step 2. ___ Step 3. Party</t>
+  </si>
+  <si>
+    <t>The CDC says the outbreak was due to ___.</t>
+  </si>
+  <si>
+    <t>The yellow brick road actually leads to ___.</t>
+  </si>
+  <si>
+    <t>There is only one way to handle this ISIS situation ___.</t>
+  </si>
+  <si>
+    <t>They may take our lives, but they will never take our ___.</t>
+  </si>
+  <si>
+    <t>What's the difference between me and you? You have you shit together and I like ___.</t>
+  </si>
+  <si>
+    <t>Why so serious? ___. That’s why.</t>
+  </si>
+  <si>
+    <t>___ Spice was one of the lesser-known Spice Girls.</t>
+  </si>
+  <si>
+    <t>___: It even makes it's own gravy!</t>
+  </si>
+  <si>
+    <t>Code Three, request backup! I'm surrounded by ___!</t>
+  </si>
+  <si>
+    <t>Forget Fifty Shades of Grey… Give me Fifty Shades of ___.</t>
+  </si>
+  <si>
+    <t>I never karaoke because I always end up getting drunk and singing a song about ___.</t>
+  </si>
+  <si>
+    <t>I'm finally writing that book, it's titles "Zen and the Art of ___."</t>
+  </si>
+  <si>
+    <t>It's all about ___-no ___.</t>
+  </si>
+  <si>
+    <t>My Therapist says I have an unhealthy attitude about ___.</t>
+  </si>
+  <si>
+    <t>Next on Adult Swim: The adventures of ___ and ___.</t>
+  </si>
+  <si>
+    <t>Yo bro, you tired ___? Shit's straight fire.</t>
+  </si>
+  <si>
+    <t>Your kids with your fancy degrees… They don't teach ya' nothing' 'bout ___ in school.</t>
+  </si>
+  <si>
+    <t>___. The breakfast of champions.</t>
+  </si>
+  <si>
+    <t>___. The happiest place on earth.</t>
+  </si>
+  <si>
+    <t>___. The taste of paradise.</t>
+  </si>
+  <si>
+    <t>All compromise is based on give and take. But there can be no give and take on ___.</t>
+  </si>
+  <si>
+    <t>And all because the lady loves ___.</t>
+  </si>
+  <si>
+    <t>As far back as I can remember, I always wanted to be ___.</t>
+  </si>
+  <si>
+    <t>Don't try teaching your Grandma to ___.</t>
+  </si>
+  <si>
+    <t>During the sexual discrimination tribunal, I couldn't help noticing the female prosecutor's impressive ___.</t>
+  </si>
+  <si>
+    <t>Genius is 1% inspiration and 99% ___.</t>
+  </si>
+  <si>
+    <t>Here's a fact that might surprise you. ___ is caused by ___ and often leads to ___.</t>
+  </si>
+  <si>
+    <t>Hey kids! Did you know that combining ___ with ___ is great for relieving ___.</t>
+  </si>
+  <si>
+    <t>Holy crap?! I've just realized that my super-power causes ___ to ___.</t>
+  </si>
+  <si>
+    <t>I managed to avoid ___, all thanks to ___.</t>
+  </si>
+  <si>
+    <t>I'm thankful to God for creating ___ that love the taste of ___.</t>
+  </si>
+  <si>
+    <t>If ___ is wrong, I don't want to be right.</t>
+  </si>
+  <si>
+    <t>It takes both ___ and ___ to snatch victory from the jaws of defeat.</t>
+  </si>
+  <si>
+    <t>Last night, I used ___ as lube. It didn't end well.</t>
+  </si>
+  <si>
+    <t>My scared oath has sworn me to protect ___ from both ___ and ___.</t>
+  </si>
+  <si>
+    <t>Nature abhors ___.</t>
+  </si>
+  <si>
+    <t>No pain, no ___.</t>
+  </si>
+  <si>
+    <t>Nothing is certain but death and ___.</t>
+  </si>
+  <si>
+    <t>On my signal, unleash ___.</t>
+  </si>
+  <si>
+    <t>Statsically speaking, 9 out of 10 people enjoy ___.</t>
+  </si>
+  <si>
+    <t>Test subject 37 will be the world's most deadly predator thanks to successfully combining ___ with ___.</t>
+  </si>
+  <si>
+    <t>The problem with society today is ___ and their goddamn ___.</t>
+  </si>
+  <si>
+    <t>The true art of seduction lies in using ___ and ___ in a way that ensures ___.</t>
+  </si>
+  <si>
+    <t>There are two things I hate. Racism and ___.</t>
+  </si>
+  <si>
+    <t>This ancient Egyptian scroll contains one of the fundamental truths of life: ___ cannot flourish without ___.</t>
+  </si>
+  <si>
+    <t>___, a failure of the S.U.N.Y. education system.</t>
+  </si>
+  <si>
+    <t>After taking on the Buffalo School Board, Carl Paladino takes on ___.</t>
+  </si>
+  <si>
+    <t>I got blackout drunk on Chippewa and hooked up with ___.</t>
+  </si>
+  <si>
+    <t>People have started eating ___ because it's organic and gluten-free.</t>
+  </si>
+  <si>
+    <t>The biggest lie my recruiter told me was ___.</t>
+  </si>
+  <si>
+    <t>The worst thing about the US military is ___.</t>
+  </si>
+  <si>
+    <t>___ really ruined PrideFest for me this year.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -751,6 +3027,20 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -779,7 +3069,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -795,6 +3085,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1110,10 +3413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A232"/>
+  <dimension ref="A1:A998"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A232"/>
+    <sheetView tabSelected="1" topLeftCell="A330" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B331" sqref="B331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,77 +3692,77 @@
     </row>
     <row r="54" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>893</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="141" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
@@ -1474,72 +3777,72 @@
     </row>
     <row r="71" spans="1:1" ht="141" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="141" x14ac:dyDescent="0.25">
@@ -1549,137 +3852,137 @@
     </row>
     <row r="86" spans="1:1" ht="141" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="179.25" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="141" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="141" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="102" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
@@ -1689,272 +3992,272 @@
     </row>
     <row r="114" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>174</v>
+        <v>894</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>175</v>
+        <v>895</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>178</v>
+        <v>896</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="51" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="51" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="39" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>196</v>
+        <v>897</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="141" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>202</v>
+        <v>898</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>203</v>
+        <v>899</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="141" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>213</v>
+        <v>900</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="39" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="39" x14ac:dyDescent="0.25">
@@ -1964,7 +4267,7 @@
     </row>
     <row r="169" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="39" x14ac:dyDescent="0.25">
@@ -2194,72 +4497,72 @@
     </row>
     <row r="215" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="102" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="192" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="39" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
@@ -2280,6 +4583,3836 @@
     <row r="232" spans="1:1" ht="39" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A233" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A234" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A235" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A236" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="A237" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A238" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A239" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A240" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A241" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A242" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A243" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A244" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" ht="166.5" x14ac:dyDescent="0.25">
+      <c r="A245" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A246" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A247" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" ht="179.25" x14ac:dyDescent="0.25">
+      <c r="A248" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" ht="166.5" x14ac:dyDescent="0.25">
+      <c r="A249" s="6" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A250" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A251" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A252" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A253" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" ht="166.5" x14ac:dyDescent="0.25">
+      <c r="A254" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" ht="179.25" x14ac:dyDescent="0.25">
+      <c r="A255" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A256" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A257" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A258" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A259" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A260" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A261" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A262" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A263" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A264" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A265" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="A266" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A267" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A268" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A269" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="A270" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" ht="166.5" x14ac:dyDescent="0.25">
+      <c r="A271" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A272" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="A273" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A274" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A275" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" ht="179.25" x14ac:dyDescent="0.25">
+      <c r="A276" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" ht="166.5" x14ac:dyDescent="0.25">
+      <c r="A277" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="A278" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A279" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A280" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A281" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A282" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A283" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A284" s="6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A285" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A286" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A287" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A288" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" ht="255.75" x14ac:dyDescent="0.25">
+      <c r="A293" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A295" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A296" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A297" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A298" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A299" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A300" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A301" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A302" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A303" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="A304" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A305" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A306" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A307" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A308" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A309" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A310" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A311" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A312" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A313" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A314" s="6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A315" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A316" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A317" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A318" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A319" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A320" s="9" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A321" s="9" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A322" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A323" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A324" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A325" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" ht="166.5" x14ac:dyDescent="0.25">
+      <c r="A326" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A327" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A328" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A329" s="6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A330" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A331" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A332" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A333" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A334" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A335" s="6" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A336" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A337" s="6" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A338" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A339" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A340" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A341" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A342" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A343" s="6" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A344" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A345" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A346" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A347" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="A348" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A349" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="A350" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A351" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A352" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A353" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A354" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A355" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="A356" s="6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A357" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A358" s="6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A359" s="6" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A360" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A361" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A362" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A363" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A364" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A365" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A366" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A367" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A368" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A369" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A370" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A371" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A372" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A373" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A374" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A375" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A376" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A377" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A378" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A379" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A380" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A381" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A382" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A383" s="6" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A384" s="6" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A385" s="6" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A386" s="6" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A387" s="6" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A388" s="6" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A389" s="6" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" ht="166.5" x14ac:dyDescent="0.25">
+      <c r="A390" s="6" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A391" s="6" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A392" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="A393" s="6" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A394" s="6" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" ht="166.5" x14ac:dyDescent="0.25">
+      <c r="A395" s="6" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" ht="179.25" x14ac:dyDescent="0.25">
+      <c r="A396" s="6" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A397" s="6" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" ht="192" x14ac:dyDescent="0.25">
+      <c r="A398" s="6" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A399" s="6" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A400" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A401" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A402" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A403" s="6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A404" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A405" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A406" s="6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A407" s="6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A408" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A409" s="6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A410" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A411" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A412" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A413" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A414" s="6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A415" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A416" s="6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A417" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A418" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A419" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A420" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A421" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A422" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A423" s="6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" ht="179.25" x14ac:dyDescent="0.25">
+      <c r="A424" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A425" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A426" s="6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A427" s="6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A428" s="6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A429" s="6" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A430" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A431" s="6" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A432" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A433" s="6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A434" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A435" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A436" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A437" s="6" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A438" s="6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A439" s="6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A440" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="A441" s="6" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A442" s="6" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A443" s="6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A444" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A445" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A446" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A447" s="6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A448" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A449" s="6" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A450" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A451" s="6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A452" s="6" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A453" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A454" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A455" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A456" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A457" s="6" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A458" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="A459" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A460" s="6" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A461" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A462" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" ht="126" x14ac:dyDescent="0.25">
+      <c r="A463" s="6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A464" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A465" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" ht="166.5" x14ac:dyDescent="0.25">
+      <c r="A466" s="6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" ht="203.25" x14ac:dyDescent="0.25">
+      <c r="A467" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A468" s="6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A469" s="6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A470" s="6" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A471" s="6" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" ht="166.5" x14ac:dyDescent="0.25">
+      <c r="A472" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" ht="179.25" x14ac:dyDescent="0.25">
+      <c r="A473" s="6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A474" s="6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A475" s="6" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" ht="132" x14ac:dyDescent="0.25">
+      <c r="A476" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A477" s="6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A478" s="6" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A479" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A480" s="6" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A481" s="6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A482" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="A483" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" ht="207" x14ac:dyDescent="0.25">
+      <c r="A484" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" ht="166.5" x14ac:dyDescent="0.25">
+      <c r="A485" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A486" s="6" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A487" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" ht="166.5" x14ac:dyDescent="0.25">
+      <c r="A488" s="6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" ht="166.5" x14ac:dyDescent="0.25">
+      <c r="A489" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A490" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A491" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" ht="192" x14ac:dyDescent="0.25">
+      <c r="A492" s="6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" ht="192" x14ac:dyDescent="0.25">
+      <c r="A493" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A494" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A495" s="6" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A496" s="6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A497" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A498" s="6" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A499" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="A500" s="6" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="A501" s="6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A502" s="6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A503" s="6" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A504" s="6" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="A505" s="6" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A506" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" ht="179.25" x14ac:dyDescent="0.25">
+      <c r="A507" s="6" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" ht="192" x14ac:dyDescent="0.25">
+      <c r="A508" s="6" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A509" s="6" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A510" s="6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A511" s="6" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A512" s="6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A513" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A514" s="6" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A515" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" ht="143.25" x14ac:dyDescent="0.25">
+      <c r="A516" s="6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A517" s="6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A518" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A519" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A520" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" ht="166.5" x14ac:dyDescent="0.25">
+      <c r="A521" s="6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" ht="166.5" x14ac:dyDescent="0.25">
+      <c r="A522" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" ht="268.5" x14ac:dyDescent="0.25">
+      <c r="A523" s="6" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" ht="268.5" x14ac:dyDescent="0.25">
+      <c r="A524" s="6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A525" s="6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" ht="166.5" x14ac:dyDescent="0.25">
+      <c r="A526" s="6" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="A527" s="6" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A528" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" ht="230.25" x14ac:dyDescent="0.25">
+      <c r="A529" s="6" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A530" s="6" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A531" s="6" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A532" s="6" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A533" s="6" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A534" s="6" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A535" s="6" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A536" s="6" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A537" s="6" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A538" s="6" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A539" s="6" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A540" s="6" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A541" s="6" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A542" s="6" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A543" s="6" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A544" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A545" s="6" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A546" s="6" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A547" s="6" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A548" s="6" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A549" s="6" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A550" s="6" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A551" s="6" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A552" s="6" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="A553" s="6" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A554" s="6" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A555" s="6" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A556" s="6" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A557" s="6" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A558" s="6" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="A559" s="6" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A560" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A561" s="6" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A562" s="6" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A563" s="6" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A564" s="6" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A565" s="6" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A566" s="6" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A567" s="6" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A568" s="6" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A569" s="6" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A570" s="6" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A571" s="6" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A572" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A573" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A574" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A575" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A576" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A577" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A578" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A579" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A580" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A581" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A582" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A583" s="6" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A584" s="6" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A585" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A586" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A587" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A588" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A589" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A590" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A591" s="6" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A592" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A593" s="6" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A594" s="6" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A595" s="6" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A596" s="6" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A597" s="6" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A598" s="6" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A599" s="6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A600" s="6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A601" s="6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A602" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A603" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A604" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A605" s="6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A606" s="6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A607" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A608" s="6" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A609" s="6" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A610" s="6" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A611" s="6" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A612" s="6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A613" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A614" s="6" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A615" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A616" s="6" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A617" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A618" s="6" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A619" s="6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A620" s="6" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A621" s="6" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A622" s="6" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A623" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A624" s="6" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A625" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A626" s="6" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A627" s="6" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A628" s="6" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A629" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A630" s="6" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A631" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A632" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A633" s="6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A634" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A635" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A636" s="6" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A637" s="6" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A638" s="6" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A639" s="6" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A640" s="6" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A641" s="6" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" ht="243" x14ac:dyDescent="0.25">
+      <c r="A642" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A643" s="6" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A644" s="6" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" ht="166.5" x14ac:dyDescent="0.25">
+      <c r="A645" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A646" s="6" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A647" s="6" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A648" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A649" s="6" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A650" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A651" s="6" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A652" s="6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A653" s="6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A654" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A655" s="6" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A656" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A657" s="6" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A658" s="6" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A659" s="6" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A660" s="6" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A661" s="6" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A662" s="6" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A663" s="6" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A664" s="6" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A665" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A666" s="6" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A667" s="6" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A668" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A669" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A670" s="6" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A671" s="6" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A672" s="6" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A673" s="6" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A674" s="6" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A675" s="6" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A676" s="6" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A677" s="6" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A678" s="6" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A679" s="6" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A680" s="6" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A681" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A682" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A683" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A684" s="6" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A685" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A686" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A687" s="6" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A688" s="6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A689" s="6" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A690" s="6" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A691" s="6" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A692" s="6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" ht="179.25" x14ac:dyDescent="0.25">
+      <c r="A693" s="6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A694" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A695" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A696" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A697" s="6" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A698" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="A699" s="6" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" ht="130.5" x14ac:dyDescent="0.25">
+      <c r="A700" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A701" s="6" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A702" s="6" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" ht="192" x14ac:dyDescent="0.25">
+      <c r="A703" s="6" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A704" s="6" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A705" s="6" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A706" s="6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A707" s="6" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A708" s="6" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" ht="180.75" x14ac:dyDescent="0.25">
+      <c r="A709" s="6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A710" s="6" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A711" s="6" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A712" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A713" s="6" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A714" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A715" s="6" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A716" s="6" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A717" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A718" s="6" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A719" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A720" s="6" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A721" s="6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A722" s="6" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A723" s="6" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A724" s="6" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A725" s="6" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A726" s="6" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A727" s="6" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A728" s="6" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A729" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A730" s="6" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A731" s="6" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A732" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" ht="126" x14ac:dyDescent="0.25">
+      <c r="A733" s="6" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A734" s="6" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A735" s="6" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A736" s="6" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A737" s="6" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A738" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A739" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A740" s="6" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" ht="123.75" x14ac:dyDescent="0.25">
+      <c r="A741" s="6" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A742" s="6" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A743" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A744" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="A745" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A746" s="6" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A747" s="6" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A748" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" ht="68.25" x14ac:dyDescent="0.25">
+      <c r="A749" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A750" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A751" s="6" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A752" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A753" s="6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A754" s="6" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A755" s="6" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A756" s="6" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A757" s="6" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A758" s="6" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A759" s="6" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A760" s="6" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A761" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A762" s="6" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A763" s="6" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A764" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A765" s="6" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A766" s="6" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A767" s="6" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A768" s="6" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A769" s="6" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A770" s="6" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A771" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A772" s="6" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A773" s="6" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A774" s="6" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A775" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A776" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A777" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A778" s="6" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A779" s="6" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A780" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A781" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A782" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A783" s="6" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A784" s="6" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A785" s="6" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A786" s="6" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A787" s="6" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A788" s="6" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A789" s="6" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A790" s="6" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A791" s="6" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A792" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A793" s="6" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A794" s="6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A795" s="6" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A796" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A797" s="6" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A798" s="6" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A799" s="6" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A800" s="6" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A801" s="6" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A802" s="6" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A803" s="6" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A804" s="6" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A805" s="6" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A806" s="6" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A807" s="6" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A808" s="6" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A809" s="6" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A810" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A811" s="6" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A812" s="6" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A813" s="6" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A814" s="6" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A815" s="6" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A816" s="6" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A817" s="6" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A818" s="6" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A819" s="6" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A820" s="6" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A821" s="6" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" ht="166.5" x14ac:dyDescent="0.25">
+      <c r="A822" s="6" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A823" s="6" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A824" s="6" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A825" s="6" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A826" s="6" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A827" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A828" s="6" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A829" s="6" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A830" s="6" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A831" s="6" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A832" s="6" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A833" s="6" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A834" s="6" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A835" s="6" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A836" s="6" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A837" s="6" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A838" s="6" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" ht="166.5" x14ac:dyDescent="0.25">
+      <c r="A839" s="6" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A840" s="6" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A841" s="6" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A842" s="6" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A843" s="6" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" ht="166.5" x14ac:dyDescent="0.25">
+      <c r="A844" s="6" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A845" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A846" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A847" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A848" s="6" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A849" s="6" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A850" s="6" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" ht="192" x14ac:dyDescent="0.25">
+      <c r="A851" s="6" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A852" s="6" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A853" s="6" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A854" s="6" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A855" s="6" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A856" s="6" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A857" s="6" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A858" s="6" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A859" s="6" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A860" s="6" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A861" s="6" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A862" s="6" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A863" s="6" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A864" s="6" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A865" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A866" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A867" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A868" s="6" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A869" s="6" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A870" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A871" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A872" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A873" s="6" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A874" s="6" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A875" s="6" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A876" s="6" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A877" s="6" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A878" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A879" s="6" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A880" s="6" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A881" s="6" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A882" s="6" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A883" s="6" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A884" s="6" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A885" s="6" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A886" s="6" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A887" s="6" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A888" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A889" s="6" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A890" s="6" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A891" s="6" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A892" s="6" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A893" s="6" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A894" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A895" s="6" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="A896" s="6" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A897" s="6" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" ht="166.5" x14ac:dyDescent="0.25">
+      <c r="A898" s="6" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A899" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A900" s="6" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A901" s="6" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A902" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A903" s="6" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A904" s="6" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A905" s="6" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A906" s="6" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A907" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A908" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A909" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A910" s="6" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A911" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A912" s="6" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A913" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A914" s="6" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A915" s="6" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A916" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A917" s="6" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A918" s="6" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A919" s="6" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A920" s="6" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A921" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A922" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A923" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A924" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A925" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A926" s="6" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A927" s="6" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A928" s="6" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A929" s="6" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A930" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A931" s="6" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A932" s="6" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A933" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A934" s="10" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A935" s="10" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A936" s="10" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A937" s="10" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A938" s="10" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A939" s="10" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A940" s="10" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A941" s="10" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A942" s="10" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A943" s="10" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A944" s="10" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A945" s="10" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A946" s="10" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A947" s="10" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A948" s="10" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A949" s="10" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A950" s="10" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A951" s="10" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A952" s="10" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A953" s="10" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A954" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A955" s="10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A956" s="10" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A957" s="10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A958" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A959" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A960" s="10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A961" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A962" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A963" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A964" s="6" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A965" s="6" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A966" s="6" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A967" s="6" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="A968" s="6" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A969" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A970" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A971" s="6" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A972" s="6" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A973" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="A974" s="6" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A975" s="6" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A976" s="6" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A977" s="6" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A978" s="6" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A979" s="6" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A980" s="6" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="A981" s="6" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A982" s="6" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A983" s="6" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A984" s="6" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A985" s="6" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A986" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A987" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A988" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A989" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A990" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A991" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A992" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A993" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A994" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A995" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A996" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A997" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A998" s="6" t="s">
+        <v>832</v>
       </c>
     </row>
   </sheetData>
